--- a/docs/mobile-attack-v9.0/mobile-attack-v9.0-groups.xlsx
+++ b/docs/mobile-attack-v9.0/mobile-attack-v9.0-groups.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="259">
   <si>
     <t>ID</t>
   </si>
@@ -58,6 +58,9 @@
     <t>G0070</t>
   </si>
   <si>
+    <t>G0034</t>
+  </si>
+  <si>
     <t>G0112</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t>Dark Caracal</t>
+  </si>
+  <si>
+    <t>Sandworm Team</t>
   </si>
   <si>
     <t>Windshift</t>
@@ -83,6 +89,10 @@
     <t>[Dark Caracal](https://attack.mitre.org/groups/G0070) is threat group that has been attributed to the Lebanese General Directorate of General Security (GDGS) and has operated since at least 2012. (Citation: Lookout Dark Caracal Jan 2018)</t>
   </si>
   <si>
+    <t>[Sandworm Team](https://attack.mitre.org/groups/G0034) is a destructive threat group that has been attributed to Russia's General Staff Main Intelligence Directorate (GRU) Main Center for Special Technologies (GTsST) military unit 74455.(Citation: US District Court Indictment GRU Unit 74455 October 2020)(Citation: UK NCSC Olympic Attacks October 2020) This group has been active since at least 2009.(Citation: iSIGHT Sandworm 2014)(Citation: CrowdStrike VOODOO BEAR)(Citation: USDOJ Sandworm Feb 2020)(Citation: NCSC Sandworm Feb 2020)
+In October 2020, the US indicted six GRU Unit 74455 officers associated with [Sandworm Team](https://attack.mitre.org/groups/G0034) for the following cyber operations: the 2015 and 2016 attacks against Ukrainian electrical companies and government organizations, the 2017 worldwide [NotPetya](https://attack.mitre.org/software/S0368) attack, targeting of the 2017 French presidential campaign, the 2018 [Olympic Destroyer](https://attack.mitre.org/software/S0365) attack against the Winter Olympic Games, the 2018 operation against the Organisation for the Prohibition of Chemical Weapons, and attacks against the country of Georgia in 2018 and 2019.(Citation: US District Court Indictment GRU Unit 74455 October 2020)(Citation: UK NCSC Olympic Attacks October 2020) Some of these were conducted with the assistance of GRU Unit 26165, which is also referred to as [APT28](https://attack.mitre.org/groups/G0007).(Citation: US District Court Indictment GRU Oct 2018)</t>
+  </si>
+  <si>
     <t>[Windshift](https://attack.mitre.org/groups/G0112) is a threat group that has been active since at least 2017, targeting specific individuals for surveillance in government departments and critical infrastructure across the Middle East.(Citation: SANS Windshift August 2018)(Citation: objective-see windtail1 dec 2018)(Citation: objective-see windtail2 jan 2019)</t>
   </si>
   <si>
@@ -95,6 +105,9 @@
     <t>https://attack.mitre.org/groups/G0070</t>
   </si>
   <si>
+    <t>https://attack.mitre.org/groups/G0034</t>
+  </si>
+  <si>
     <t>https://attack.mitre.org/groups/G0112</t>
   </si>
   <si>
@@ -119,6 +132,9 @@
     <t>03 June 2020</t>
   </si>
   <si>
+    <t>13 April 2021</t>
+  </si>
+  <si>
     <t>26 April 2021</t>
   </si>
   <si>
@@ -131,6 +147,9 @@
     <t>1.2</t>
   </si>
   <si>
+    <t>2.0</t>
+  </si>
+  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -140,12 +159,18 @@
     <t>Fancy Bear, Group 74, Pawn Storm, SNAKEMACKEREL, STRONTIUM, Sednit, Sofacy, Swallowtail, TG-4127, Threat Group-4127, Tsar Team</t>
   </si>
   <si>
+    <t>BlackEnergy (Group), ELECTRUM, IRON VIKING, Quedagh, Telebots, VOODOO BEAR</t>
+  </si>
+  <si>
     <t>Bahamut</t>
   </si>
   <si>
     <t>(Citation: Crowdstrike DNC June 2016) (Citation: Kaspersky Sofacy) (Citation: ESET Sednit Part 3) (Citation: Ars Technica GRU indictment Jul 2018)(Citation: Talos Seduploader Oct 2017)(Citation: Symantec APT28 Oct 2018)(Citation: Securelist Sofacy Feb 2018), (Citation: Talos Seduploader Oct 2017), (Citation: SecureWorks TG-4127) (Citation: ESET Sednit Part 3)(Citation: TrendMicro Pawn Storm Dec 2020) , (Citation: Accenture SNAKEMACKEREL Nov 2018), (Citation: Kaspersky Sofacy) (Citation: ESET Sednit Part 3) (Citation: Microsoft STRONTIUM Aug 2019) (Citation: Microsoft STRONTIUM New Patterns Cred Harvesting Sept 2020)(Citation: TrendMicro Pawn Storm Dec 2020) , This designation has been used in reporting both to refer to the threat group and its associated malware JHUHUGIT. (Citation: FireEye APT28 January 2017) (Citation: SecureWorks TG-4127) (Citation: Kaspersky Sofacy) (Citation: Ars Technica GRU indictment Jul 2018), This designation has been used in reporting both to refer to the threat group and its associated malware. (Citation: FireEye APT28) (Citation: SecureWorks TG-4127) (Citation: Crowdstrike DNC June 2016) (Citation: ESET Sednit Part 3) (Citation: Ars Technica GRU indictment Jul 2018)(Citation: Talos Seduploader Oct 2017), (Citation: Symantec APT28 Oct 2018), (Citation: SecureWorks TG-4127), (Citation: SecureWorks TG-4127), (Citation: ESET Sednit Part 3)(Citation: Talos Seduploader Oct 2017)(Citation: Talos Seduploader Oct 2017)</t>
   </si>
   <si>
+    <t>(Citation: NCSC Sandworm Feb 2020)(Citation: UK NCSC Olympic Attacks October 2020), (Citation: Dragos ELECTRUM)(Citation: UK NCSC Olympic Attacks October 2020), (Citation: Secureworks IRON VIKING )(Citation: US District Court Indictment GRU Unit 74455 October 2020)(Citation: UK NCSC Olympic Attacks October 2020), (Citation: iSIGHT Sandworm 2014) (Citation: F-Secure BlackEnergy 2014)(Citation: UK NCSC Olympic Attacks October 2020), (Citation: NCSC Sandworm Feb 2020)(Citation: US District Court Indictment GRU Unit 74455 October 2020)(Citation: UK NCSC Olympic Attacks October 2020), (Citation: CrowdStrike VOODOO BEAR)(Citation: US District Court Indictment GRU Unit 74455 October 2020)(Citation: UK NCSC Olympic Attacks October 2020)</t>
+  </si>
+  <si>
     <t>(Citation: SANS Windshift August 2018)</t>
   </si>
   <si>
@@ -182,15 +207,48 @@
     <t>S0314</t>
   </si>
   <si>
+    <t>S0421</t>
+  </si>
+  <si>
+    <t>S0182</t>
+  </si>
+  <si>
+    <t>S0399</t>
+  </si>
+  <si>
+    <t>S0555</t>
+  </si>
+  <si>
     <t>X-Agent for Android</t>
   </si>
   <si>
+    <t>GolfSpy</t>
+  </si>
+  <si>
+    <t>FinFisher</t>
+  </si>
+  <si>
+    <t>Pallas</t>
+  </si>
+  <si>
+    <t>CHEMISTGAMES</t>
+  </si>
+  <si>
     <t>software</t>
   </si>
   <si>
     <t>(Citation: CrowdStrike-Android)</t>
   </si>
   <si>
+    <t>(Citation: Trend Micro Bouncing Golf 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Dark Caracal Jan 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES)</t>
+  </si>
+  <si>
     <t>T1476</t>
   </si>
   <si>
@@ -380,6 +438,9 @@
     <t>Blackberry Bahamut</t>
   </si>
   <si>
+    <t>CYBERWARCON CHEMISTGAMES</t>
+  </si>
+  <si>
     <t>CrowdStrike-Android</t>
   </si>
   <si>
@@ -458,6 +519,36 @@
     <t>Microsoft STRONTIUM New Patterns Cred Harvesting Sept 2020</t>
   </si>
   <si>
+    <t>US District Court Indictment GRU Unit 74455 October 2020</t>
+  </si>
+  <si>
+    <t>UK NCSC Olympic Attacks October 2020</t>
+  </si>
+  <si>
+    <t>iSIGHT Sandworm 2014</t>
+  </si>
+  <si>
+    <t>CrowdStrike VOODOO BEAR</t>
+  </si>
+  <si>
+    <t>USDOJ Sandworm Feb 2020</t>
+  </si>
+  <si>
+    <t>NCSC Sandworm Feb 2020</t>
+  </si>
+  <si>
+    <t>F-Secure BlackEnergy 2014</t>
+  </si>
+  <si>
+    <t>InfoSecurity Sandworm Oct 2014</t>
+  </si>
+  <si>
+    <t>Dragos ELECTRUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secureworks IRON VIKING </t>
+  </si>
+  <si>
     <t>SANS Windshift August 2018</t>
   </si>
   <si>
@@ -470,6 +561,9 @@
     <t>The Blackberry Research &amp; Intelligence Team. (2020, October). BAHAMUT: Hack-for-Hire Masters of Phishing, Fake News, and Fake Apps. Retrieved February 8, 2021.</t>
   </si>
   <si>
+    <t>B. Leonard, N. Mehta. (2019, November 21). The Secret Life of Sandworms. Retrieved December 31, 2020.</t>
+  </si>
+  <si>
     <t>CrowdStrike Global Intelligence Team. (2016). Use of Fancy Bear Android Malware in Tracking of Ukrainian FIeld Artillery Units. Retrieved February 6, 2017.</t>
   </si>
   <si>
@@ -548,6 +642,36 @@
     <t>Microsoft Threat Intelligence Center (MSTIC). (2020, September 10). STRONTIUM: Detecting new patterns in credential harvesting. Retrieved September 11, 2020.</t>
   </si>
   <si>
+    <t>Scott W. Brady. (2020, October 15). United States vs. Yuriy Sergeyevich Andrienko et al.. Retrieved November 25, 2020.</t>
+  </si>
+  <si>
+    <t>UK NCSC. (2020, October 19). UK exposes series of Russian cyber attacks against Olympic and Paralympic Games . Retrieved November 30, 2020.</t>
+  </si>
+  <si>
+    <t>Hultquist, J.. (2016, January 7). Sandworm Team and the Ukrainian Power Authority Attacks. Retrieved October 6, 2017.</t>
+  </si>
+  <si>
+    <t>Meyers, A. (2018, January 19). Meet CrowdStrike’s Adversary of the Month for January: VOODOO BEAR. Retrieved May 22, 2018.</t>
+  </si>
+  <si>
+    <t>Pompeo, M. (2020, February 20). The United States Condemns Russian Cyber Attack Against the Country of Georgia. Retrieved June 18, 2020.</t>
+  </si>
+  <si>
+    <t>NCSC. (2020, February 20). NCSC supports US advisory regarding GRU intrusion set Sandworm. Retrieved June 10, 2020.</t>
+  </si>
+  <si>
+    <t>F-Secure Labs. (2014). BlackEnergy &amp; Quedagh: The convergence of crimeware and APT attacks. Retrieved March 24, 2016.</t>
+  </si>
+  <si>
+    <t>Muncaster, P.. (2014, October 14). Microsoft Zero Day Traced to Russian ‘Sandworm’ Hackers. Retrieved October 6, 2017.</t>
+  </si>
+  <si>
+    <t>Dragos. (2017, January 1). ELECTRUM Threat Profile. Retrieved June 10, 2020.</t>
+  </si>
+  <si>
+    <t>Secureworks. (2020, May 1). IRON VIKING Threat Profile. Retrieved June 10, 2020.</t>
+  </si>
+  <si>
     <t>Karim, T. (2018, August). TRAILS OF WINDSHIFT. Retrieved June 25, 2020.</t>
   </si>
   <si>
@@ -560,6 +684,9 @@
     <t>https://www.blackberry.com/us/en/pdfviewer?file=/content/dam/blackberry-com/asset/enterprise/pdf/direct/report-spark-bahamut.pdf</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=xoNSbm1aX_w</t>
+  </si>
+  <si>
     <t>https://www.crowdstrike.com/wp-content/brochures/FancyBearTracksUkrainianArtillery.pdf</t>
   </si>
   <si>
@@ -630,6 +757,36 @@
   </si>
   <si>
     <t>https://www.microsoft.com/security/blog/2020/09/10/strontium-detecting-new-patters-credential-harvesting/</t>
+  </si>
+  <si>
+    <t>https://www.justice.gov/opa/press-release/file/1328521/download</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/news/uk-exposes-series-of-russian-cyber-attacks-against-olympic-and-paralympic-games</t>
+  </si>
+  <si>
+    <t>https://www.fireeye.com/blog/threat-research/2016/01/ukraine-and-sandworm-team.html</t>
+  </si>
+  <si>
+    <t>https://www.crowdstrike.com/blog/meet-crowdstrikes-adversary-of-the-month-for-january-voodoo-bear/</t>
+  </si>
+  <si>
+    <t>https://2017-2021.state.gov/the-united-states-condemns-russian-cyber-attack-against-the-country-of-georgia//index.html</t>
+  </si>
+  <si>
+    <t>https://www.ncsc.gov.uk/news/ncsc-supports-sandworm-advisory</t>
+  </si>
+  <si>
+    <t>https://blog-assets.f-secure.com/wp-content/uploads/2019/10/15163408/BlackEnergy_Quedagh.pdf</t>
+  </si>
+  <si>
+    <t>https://www.infosecurity-magazine.com/news/microsoft-zero-day-traced-russian/</t>
+  </si>
+  <si>
+    <t>https://www.dragos.com/resource/electrum/</t>
+  </si>
+  <si>
+    <t>https://www.secureworks.com/research/threat-profiles/iron-viking</t>
   </si>
   <si>
     <t>https://www.sans.org/cyber-security-summit/archives/file/summit-archive-1554718868.pdf</t>
@@ -1009,7 +1166,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1052,31 +1209,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1084,22 +1241,22 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1107,22 +1264,22 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1130,28 +1287,57 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>42</v>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1160,6 +1346,7 @@
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D4" r:id="rId3"/>
     <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1167,7 +1354,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1175,28 +1362,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1204,25 +1391,129 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1240,28 +1531,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1269,25 +1560,25 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1295,25 +1586,25 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="H3" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1321,25 +1612,25 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="H4" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1347,467 +1638,467 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="H5" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="H6" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="H7" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="H8" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="H9" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="H10" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="H11" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="H12" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="H13" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="G14" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="H14" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="H15" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="G16" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="H16" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="G17" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="H17" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="H18" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="G19" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="H19" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="G20" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="H20" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="G21" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="H21" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="G22" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="H22" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1817,7 +2108,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1825,10 +2116,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1836,348 +2127,469 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>183</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>182</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="B32" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="B33" t="s">
+        <v>208</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" t="s">
+        <v>212</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" t="s">
+        <v>215</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
         <v>178</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>206</v>
+      <c r="B44" t="s">
+        <v>219</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2186,7 +2598,7 @@
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C8" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId5"/>
     <hyperlink ref="C9" r:id="rId6"/>
     <hyperlink ref="C10" r:id="rId7"/>
     <hyperlink ref="C11" r:id="rId8"/>
@@ -2203,8 +2615,8 @@
     <hyperlink ref="C22" r:id="rId19"/>
     <hyperlink ref="C23" r:id="rId20"/>
     <hyperlink ref="C24" r:id="rId21"/>
-    <hyperlink ref="C25" r:id="rId22" location="zoom=50"/>
-    <hyperlink ref="C26" r:id="rId23"/>
+    <hyperlink ref="C25" r:id="rId22"/>
+    <hyperlink ref="C26" r:id="rId23" location="zoom=50"/>
     <hyperlink ref="C27" r:id="rId24"/>
     <hyperlink ref="C28" r:id="rId25"/>
     <hyperlink ref="C29" r:id="rId26"/>
@@ -2212,6 +2624,17 @@
     <hyperlink ref="C31" r:id="rId28"/>
     <hyperlink ref="C32" r:id="rId29"/>
     <hyperlink ref="C33" r:id="rId30"/>
+    <hyperlink ref="C34" r:id="rId31"/>
+    <hyperlink ref="C35" r:id="rId32"/>
+    <hyperlink ref="C36" r:id="rId33"/>
+    <hyperlink ref="C37" r:id="rId34"/>
+    <hyperlink ref="C38" r:id="rId35"/>
+    <hyperlink ref="C39" r:id="rId36"/>
+    <hyperlink ref="C40" r:id="rId37"/>
+    <hyperlink ref="C41" r:id="rId38"/>
+    <hyperlink ref="C42" r:id="rId39"/>
+    <hyperlink ref="C43" r:id="rId40"/>
+    <hyperlink ref="C44" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
